--- a/biology/Neurosciences/Eva_Syková/Eva_Syková.xlsx
+++ b/biology/Neurosciences/Eva_Syková/Eva_Syková.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eva_Sykov%C3%A1</t>
+          <t>Eva_Syková</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eva Syková, née le 24 juillet 1944 à Rožmitál pod Třemšínem (aujourd'hui en République tchèque), est une chercheuse et neuro-scientifique tchèque. Elle est sénatrice entre 2012 et 2018. 
-Ses recherches portent sur les origines, les mécanismes, la maintenance de l'homéostasie ionique, le volume dans le système nerveux central, le rôle de la transmission extra-synaptique[1],[2] et les lésions de la moelle épinière[3],[4],[5].  
+Ses recherches portent sur les origines, les mécanismes, la maintenance de l'homéostasie ionique, le volume dans le système nerveux central, le rôle de la transmission extra-synaptique, et les lésions de la moelle épinière.  
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eva_Sykov%C3%A1</t>
+          <t>Eva_Syková</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eva Sykova mène plusieurs études cliniques, y compris une étude de phase I / II chez des patients atteints de lésions de la moelle épinière ainsi que des études cliniques en cours des patients atteints de sclérose latérale amyotrophique et de blessures à la jambe à origine ischémique[incompréhensible][6]. 
-Elle est directrice de l'Institut de médecine expérimentale et est à la tête du Centre pour la thérapie cellulaire et la réparation des tissus de l'Université Charles à Prague. Eva Sykova est l'auteur de 421 publications et co-titulaire de sept brevets avec un H-index de 50[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eva Sykova mène plusieurs études cliniques, y compris une étude de phase I / II chez des patients atteints de lésions de la moelle épinière ainsi que des études cliniques en cours des patients atteints de sclérose latérale amyotrophique et de blessures à la jambe à origine ischémique[incompréhensible]. 
+Elle est directrice de l'Institut de médecine expérimentale et est à la tête du Centre pour la thérapie cellulaire et la réparation des tissus de l'Université Charles à Prague. Eva Sykova est l'auteur de 421 publications et co-titulaire de sept brevets avec un H-index de 50.
 </t>
         </is>
       </c>
